--- a/artfynd/A 34638-2025 artfynd.xlsx
+++ b/artfynd/A 34638-2025 artfynd.xlsx
@@ -2621,7 +2621,7 @@
         <v>126694965</v>
       </c>
       <c r="B19" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
